--- a/docs/annexes/sfc_numerical_simulation.xlsx
+++ b/docs/annexes/sfc_numerical_simulation.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Recherches\Travaux\DUALECO\dualeco-epl\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Recherches\Travaux\DUALECO\dualeco-epl\docs\annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD33FF-80D1-4EF3-970E-B2B2009D96F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197454CD-EB28-4999-AC4F-08F78CC86B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{04530110-4027-4069-8128-35992B99C830}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04530110-4027-4069-8128-35992B99C830}"/>
   </bookViews>
   <sheets>
     <sheet name="Firms Exit accounting" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>H</t>
   </si>
@@ -167,6 +171,36 @@
   </si>
   <si>
     <t>Deposits + Cash &gt; Loans</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>HP Money</t>
+  </si>
+  <si>
+    <t>Cash Adbances</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -603,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4D3CE-436B-4291-AD15-E6631042EC10}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,4 +1204,221 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696651A-DEDA-4F8B-BFB3-04C1A0FEA069}">
+  <dimension ref="A3:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>-175</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUM(B4:F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>-175</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>175</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G10" si="0">SUM(B5:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-150</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3">
+        <v>-50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-50</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-25</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <f>-SUM(B4:B9)</f>
+        <v>-275</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:F10" si="1">-SUM(C4:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <f>SUM(B4:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <f>SUM(C4:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <f>SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <f>SUM(E4:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(G4:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>